--- a/assets/excel/datasiswa.xlsx
+++ b/assets/excel/datasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ujiandigitalnsi\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DCB2F1-0437-469B-B222-F5E443D352E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C594CCB-B984-4871-8BE5-67EB6EC52FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12576" yWindow="2772" windowWidth="10332" windowHeight="9000" xr2:uid="{2E4E1044-1F57-4CE2-87E4-01DEDB14F376}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E4E1044-1F57-4CE2-87E4-01DEDB14F376}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nis</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>papa</t>
-  </si>
-  <si>
-    <t>yaya</t>
-  </si>
-  <si>
     <t>nama_siswa</t>
   </si>
   <si>
-    <t>nama_kelas</t>
+    <t>id_kelas</t>
+  </si>
+  <si>
+    <t>id_siswa</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -413,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E906788-C8DC-4EF3-BBBE-EE914FE7309D}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,38 +424,24 @@
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2131241</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
